--- a/Program/Other/LM036_底稿_第一類各項統計表3.xlsx
+++ b/Program/Other/LM036_底稿_第一類各項統計表3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="82" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,12 +1439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +1980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2312,7 +2306,7 @@
     <xf numFmtId="10" fontId="55" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="60" fillId="4" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="60" fillId="3" borderId="6" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2533,7 +2527,7 @@
     <xf numFmtId="181" fontId="79" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,20 +2564,13 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="30" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="28" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2591,11 +2578,17 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -2609,16 +2602,46 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2630,37 +2653,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2675,13 +2674,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="28" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="%" xfId="1"/>
@@ -9886,12 +9879,12 @@
   </sheetPr>
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13:XFD15"/>
       <selection pane="topRight" activeCell="A13" sqref="A13:XFD15"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD15"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.6328125" defaultRowHeight="15.5"/>
@@ -9933,10 +9926,10 @@
       <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="224"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
@@ -9957,10 +9950,10 @@
       <c r="Q2" s="154"/>
     </row>
     <row r="3" spans="1:20" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="221"/>
+      <c r="B3" s="220"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
       <c r="E3" s="97"/>
@@ -9984,10 +9977,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="217"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
       <c r="E4" s="97"/>
@@ -10008,10 +10001,10 @@
       <c r="Q4" s="156"/>
     </row>
     <row r="5" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="217"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="97"/>
       <c r="D5" s="97"/>
       <c r="E5" s="97"/>
@@ -10032,10 +10025,10 @@
       <c r="Q5" s="157"/>
     </row>
     <row r="6" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="217"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
       <c r="E6" s="97"/>
@@ -10057,10 +10050,10 @@
       <c r="R6" s="100"/>
     </row>
     <row r="7" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="217"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="97"/>
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
@@ -10082,10 +10075,10 @@
       <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="217"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
@@ -10107,10 +10100,10 @@
       <c r="R8" s="100"/>
     </row>
     <row r="9" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="217"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="97"/>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
@@ -10131,10 +10124,10 @@
       <c r="Q9" s="199"/>
     </row>
     <row r="10" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="221"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
       <c r="E10" s="101"/>
@@ -10256,10 +10249,10 @@
       <c r="Q14" s="158"/>
     </row>
     <row r="15" spans="1:20" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="221" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="223"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -10277,10 +10270,10 @@
       <c r="Q15" s="158"/>
     </row>
     <row r="16" spans="1:20" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="216" t="s">
+      <c r="A16" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="217"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
@@ -10301,10 +10294,10 @@
       <c r="Q16" s="159"/>
     </row>
     <row r="17" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="217"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -10325,10 +10318,10 @@
       <c r="Q17" s="159"/>
     </row>
     <row r="18" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="216" t="s">
+      <c r="A18" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="217"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109"/>
@@ -10349,10 +10342,10 @@
       <c r="Q18" s="158"/>
     </row>
     <row r="19" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="217"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
       <c r="E19" s="109"/>
@@ -10373,10 +10366,10 @@
       <c r="Q19" s="158"/>
     </row>
     <row r="20" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="216" t="s">
+      <c r="A20" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="217"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
@@ -10397,10 +10390,10 @@
       <c r="Q20" s="158"/>
     </row>
     <row r="21" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="217" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="213"/>
+      <c r="B21" s="218"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
@@ -10421,10 +10414,10 @@
       <c r="Q21" s="158"/>
     </row>
     <row r="22" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="225"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
       <c r="E22" s="111"/>
@@ -10445,10 +10438,10 @@
       <c r="Q22" s="161"/>
     </row>
     <row r="23" spans="1:17" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
       <c r="E23" s="112"/>
@@ -10466,10 +10459,10 @@
       <c r="Q23" s="161"/>
     </row>
     <row r="24" spans="1:17" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="118"/>
       <c r="D24" s="118"/>
       <c r="E24" s="118"/>
@@ -10490,10 +10483,10 @@
       <c r="Q24" s="161"/>
     </row>
     <row r="25" spans="1:17" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="217"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="113"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
@@ -10514,10 +10507,10 @@
       <c r="Q25" s="161"/>
     </row>
     <row r="26" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="217"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="114"/>
       <c r="D26" s="114"/>
       <c r="E26" s="114"/>
@@ -10538,10 +10531,10 @@
       <c r="Q26" s="161"/>
     </row>
     <row r="27" spans="1:17" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A27" s="216" t="s">
+      <c r="A27" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="217"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="114"/>
       <c r="D27" s="114"/>
       <c r="E27" s="114"/>
@@ -10562,10 +10555,10 @@
       <c r="Q27" s="161"/>
     </row>
     <row r="28" spans="1:17" s="99" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="216" t="s">
+      <c r="A28" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="217"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="116"/>
       <c r="D28" s="116"/>
       <c r="E28" s="116"/>
@@ -10586,10 +10579,10 @@
       <c r="Q28" s="161"/>
     </row>
     <row r="29" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="212" t="s">
+      <c r="A29" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="213"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="113"/>
       <c r="D29" s="113"/>
       <c r="E29" s="113"/>
@@ -10610,10 +10603,10 @@
       <c r="Q29" s="161"/>
     </row>
     <row r="30" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="214" t="s">
+      <c r="A30" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="215"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="115"/>
       <c r="D30" s="115"/>
       <c r="E30" s="115"/>
@@ -10631,10 +10624,10 @@
       <c r="Q30" s="161"/>
     </row>
     <row r="31" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A31" s="216" t="s">
+      <c r="A31" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="217"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="113"/>
       <c r="D31" s="113"/>
       <c r="E31" s="113"/>
@@ -10655,10 +10648,10 @@
       <c r="Q31" s="161"/>
     </row>
     <row r="32" spans="1:17" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="113"/>
       <c r="D32" s="113"/>
       <c r="E32" s="113"/>
@@ -10679,10 +10672,10 @@
       <c r="Q32" s="161"/>
     </row>
     <row r="33" spans="1:21" s="86" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A33" s="212" t="s">
+      <c r="A33" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="213"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="113"/>
       <c r="D33" s="113"/>
       <c r="E33" s="113"/>
@@ -12021,22 +12014,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
@@ -12049,6 +12026,22 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12066,11 +12059,11 @@
   </sheetPr>
   <dimension ref="A1:CB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="75" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12792,10 +12785,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="237" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="228"/>
+      <c r="B1" s="237"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -12843,50 +12836,50 @@
       <c r="CA1" s="11"/>
     </row>
     <row r="2" spans="1:79" s="13" customFormat="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="238" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="227"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="227"/>
+      <c r="AH2" s="227"/>
+      <c r="AI2" s="227"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
       <c r="AM2" s="63" t="s">
         <v>66</v>
       </c>
@@ -12895,46 +12888,46 @@
       </c>
     </row>
     <row r="3" spans="1:79" s="13" customFormat="1" ht="27">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
       <c r="AM3" s="117" t="s">
         <v>68</v>
       </c>
@@ -12952,106 +12945,106 @@
       <c r="D4" s="209">
         <v>0</v>
       </c>
-      <c r="E4" s="210">
-        <v>0</v>
-      </c>
-      <c r="F4" s="210">
-        <v>0</v>
-      </c>
-      <c r="G4" s="210">
-        <v>0</v>
-      </c>
-      <c r="H4" s="210">
-        <v>0</v>
-      </c>
-      <c r="I4" s="210">
-        <v>0</v>
-      </c>
-      <c r="J4" s="210">
-        <v>0</v>
-      </c>
-      <c r="K4" s="210">
-        <v>0</v>
-      </c>
-      <c r="L4" s="210">
-        <v>0</v>
-      </c>
-      <c r="M4" s="210">
-        <v>0</v>
-      </c>
-      <c r="N4" s="210">
-        <v>0</v>
-      </c>
-      <c r="O4" s="210">
-        <v>0</v>
-      </c>
-      <c r="P4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="210">
-        <v>0</v>
-      </c>
-      <c r="R4" s="210">
-        <v>0</v>
-      </c>
-      <c r="S4" s="210">
-        <v>0</v>
-      </c>
-      <c r="T4" s="210">
-        <v>0</v>
-      </c>
-      <c r="U4" s="210">
-        <v>0</v>
-      </c>
-      <c r="V4" s="210">
-        <v>0</v>
-      </c>
-      <c r="W4" s="210">
-        <v>0</v>
-      </c>
-      <c r="X4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="210">
+      <c r="E4" s="209">
+        <v>0</v>
+      </c>
+      <c r="F4" s="209">
+        <v>0</v>
+      </c>
+      <c r="G4" s="209">
+        <v>0</v>
+      </c>
+      <c r="H4" s="209">
+        <v>0</v>
+      </c>
+      <c r="I4" s="209">
+        <v>0</v>
+      </c>
+      <c r="J4" s="209">
+        <v>0</v>
+      </c>
+      <c r="K4" s="209">
+        <v>0</v>
+      </c>
+      <c r="L4" s="209">
+        <v>0</v>
+      </c>
+      <c r="M4" s="209">
+        <v>0</v>
+      </c>
+      <c r="N4" s="209">
+        <v>0</v>
+      </c>
+      <c r="O4" s="209">
+        <v>0</v>
+      </c>
+      <c r="P4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="209">
+        <v>0</v>
+      </c>
+      <c r="R4" s="209">
+        <v>0</v>
+      </c>
+      <c r="S4" s="209">
+        <v>0</v>
+      </c>
+      <c r="T4" s="209">
+        <v>0</v>
+      </c>
+      <c r="U4" s="209">
+        <v>0</v>
+      </c>
+      <c r="V4" s="209">
+        <v>0</v>
+      </c>
+      <c r="W4" s="209">
+        <v>0</v>
+      </c>
+      <c r="X4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="209">
         <v>0</v>
       </c>
       <c r="AM4" s="56"/>
@@ -13075,103 +13068,103 @@
       <c r="E5" s="209">
         <v>0</v>
       </c>
-      <c r="F5" s="210">
-        <v>0</v>
-      </c>
-      <c r="G5" s="210">
-        <v>0</v>
-      </c>
-      <c r="H5" s="210">
-        <v>0</v>
-      </c>
-      <c r="I5" s="210">
-        <v>0</v>
-      </c>
-      <c r="J5" s="210">
-        <v>0</v>
-      </c>
-      <c r="K5" s="210">
-        <v>0</v>
-      </c>
-      <c r="L5" s="210">
-        <v>0</v>
-      </c>
-      <c r="M5" s="210">
-        <v>0</v>
-      </c>
-      <c r="N5" s="210">
-        <v>0</v>
-      </c>
-      <c r="O5" s="210">
-        <v>0</v>
-      </c>
-      <c r="P5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="210">
-        <v>0</v>
-      </c>
-      <c r="R5" s="210">
-        <v>0</v>
-      </c>
-      <c r="S5" s="210">
-        <v>0</v>
-      </c>
-      <c r="T5" s="210">
-        <v>0</v>
-      </c>
-      <c r="U5" s="210">
-        <v>0</v>
-      </c>
-      <c r="V5" s="210">
-        <v>0</v>
-      </c>
-      <c r="W5" s="210">
-        <v>0</v>
-      </c>
-      <c r="X5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="210">
+      <c r="F5" s="209">
+        <v>0</v>
+      </c>
+      <c r="G5" s="209">
+        <v>0</v>
+      </c>
+      <c r="H5" s="209">
+        <v>0</v>
+      </c>
+      <c r="I5" s="209">
+        <v>0</v>
+      </c>
+      <c r="J5" s="209">
+        <v>0</v>
+      </c>
+      <c r="K5" s="209">
+        <v>0</v>
+      </c>
+      <c r="L5" s="209">
+        <v>0</v>
+      </c>
+      <c r="M5" s="209">
+        <v>0</v>
+      </c>
+      <c r="N5" s="209">
+        <v>0</v>
+      </c>
+      <c r="O5" s="209">
+        <v>0</v>
+      </c>
+      <c r="P5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="209">
+        <v>0</v>
+      </c>
+      <c r="R5" s="209">
+        <v>0</v>
+      </c>
+      <c r="S5" s="209">
+        <v>0</v>
+      </c>
+      <c r="T5" s="209">
+        <v>0</v>
+      </c>
+      <c r="U5" s="209">
+        <v>0</v>
+      </c>
+      <c r="V5" s="209">
+        <v>0</v>
+      </c>
+      <c r="W5" s="209">
+        <v>0</v>
+      </c>
+      <c r="X5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="209">
         <v>0</v>
       </c>
       <c r="AM5" s="56"/>
@@ -13196,100 +13189,100 @@
       <c r="F6" s="209">
         <v>0</v>
       </c>
-      <c r="G6" s="210">
-        <v>0</v>
-      </c>
-      <c r="H6" s="210">
-        <v>0</v>
-      </c>
-      <c r="I6" s="210">
-        <v>0</v>
-      </c>
-      <c r="J6" s="210">
-        <v>0</v>
-      </c>
-      <c r="K6" s="210">
-        <v>0</v>
-      </c>
-      <c r="L6" s="210">
-        <v>0</v>
-      </c>
-      <c r="M6" s="210">
-        <v>0</v>
-      </c>
-      <c r="N6" s="210">
-        <v>0</v>
-      </c>
-      <c r="O6" s="210">
-        <v>0</v>
-      </c>
-      <c r="P6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="210">
-        <v>0</v>
-      </c>
-      <c r="R6" s="210">
-        <v>0</v>
-      </c>
-      <c r="S6" s="210">
-        <v>0</v>
-      </c>
-      <c r="T6" s="210">
-        <v>0</v>
-      </c>
-      <c r="U6" s="210">
-        <v>0</v>
-      </c>
-      <c r="V6" s="210">
-        <v>0</v>
-      </c>
-      <c r="W6" s="210">
-        <v>0</v>
-      </c>
-      <c r="X6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="210">
+      <c r="G6" s="209">
+        <v>0</v>
+      </c>
+      <c r="H6" s="209">
+        <v>0</v>
+      </c>
+      <c r="I6" s="209">
+        <v>0</v>
+      </c>
+      <c r="J6" s="209">
+        <v>0</v>
+      </c>
+      <c r="K6" s="209">
+        <v>0</v>
+      </c>
+      <c r="L6" s="209">
+        <v>0</v>
+      </c>
+      <c r="M6" s="209">
+        <v>0</v>
+      </c>
+      <c r="N6" s="209">
+        <v>0</v>
+      </c>
+      <c r="O6" s="209">
+        <v>0</v>
+      </c>
+      <c r="P6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="209">
+        <v>0</v>
+      </c>
+      <c r="R6" s="209">
+        <v>0</v>
+      </c>
+      <c r="S6" s="209">
+        <v>0</v>
+      </c>
+      <c r="T6" s="209">
+        <v>0</v>
+      </c>
+      <c r="U6" s="209">
+        <v>0</v>
+      </c>
+      <c r="V6" s="209">
+        <v>0</v>
+      </c>
+      <c r="W6" s="209">
+        <v>0</v>
+      </c>
+      <c r="X6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="209">
         <v>0</v>
       </c>
       <c r="AM6" s="56"/>
@@ -13315,97 +13308,97 @@
       <c r="G7" s="209">
         <v>0</v>
       </c>
-      <c r="H7" s="210">
-        <v>0</v>
-      </c>
-      <c r="I7" s="210">
-        <v>0</v>
-      </c>
-      <c r="J7" s="210">
-        <v>0</v>
-      </c>
-      <c r="K7" s="210">
-        <v>0</v>
-      </c>
-      <c r="L7" s="210">
-        <v>0</v>
-      </c>
-      <c r="M7" s="210">
-        <v>0</v>
-      </c>
-      <c r="N7" s="210">
-        <v>0</v>
-      </c>
-      <c r="O7" s="210">
-        <v>0</v>
-      </c>
-      <c r="P7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="210">
-        <v>0</v>
-      </c>
-      <c r="R7" s="210">
-        <v>0</v>
-      </c>
-      <c r="S7" s="210">
-        <v>0</v>
-      </c>
-      <c r="T7" s="210">
-        <v>0</v>
-      </c>
-      <c r="U7" s="210">
-        <v>0</v>
-      </c>
-      <c r="V7" s="210">
-        <v>0</v>
-      </c>
-      <c r="W7" s="210">
-        <v>0</v>
-      </c>
-      <c r="X7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="210">
+      <c r="H7" s="209">
+        <v>0</v>
+      </c>
+      <c r="I7" s="209">
+        <v>0</v>
+      </c>
+      <c r="J7" s="209">
+        <v>0</v>
+      </c>
+      <c r="K7" s="209">
+        <v>0</v>
+      </c>
+      <c r="L7" s="209">
+        <v>0</v>
+      </c>
+      <c r="M7" s="209">
+        <v>0</v>
+      </c>
+      <c r="N7" s="209">
+        <v>0</v>
+      </c>
+      <c r="O7" s="209">
+        <v>0</v>
+      </c>
+      <c r="P7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="209">
+        <v>0</v>
+      </c>
+      <c r="R7" s="209">
+        <v>0</v>
+      </c>
+      <c r="S7" s="209">
+        <v>0</v>
+      </c>
+      <c r="T7" s="209">
+        <v>0</v>
+      </c>
+      <c r="U7" s="209">
+        <v>0</v>
+      </c>
+      <c r="V7" s="209">
+        <v>0</v>
+      </c>
+      <c r="W7" s="209">
+        <v>0</v>
+      </c>
+      <c r="X7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="209">
         <v>0</v>
       </c>
       <c r="AM7" s="56"/>
@@ -13432,94 +13425,94 @@
       <c r="H8" s="209">
         <v>0</v>
       </c>
-      <c r="I8" s="210">
-        <v>0</v>
-      </c>
-      <c r="J8" s="210">
-        <v>0</v>
-      </c>
-      <c r="K8" s="210">
-        <v>0</v>
-      </c>
-      <c r="L8" s="210">
-        <v>0</v>
-      </c>
-      <c r="M8" s="210">
-        <v>0</v>
-      </c>
-      <c r="N8" s="210">
-        <v>0</v>
-      </c>
-      <c r="O8" s="210">
-        <v>0</v>
-      </c>
-      <c r="P8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="210">
-        <v>0</v>
-      </c>
-      <c r="R8" s="210">
-        <v>0</v>
-      </c>
-      <c r="S8" s="210">
-        <v>0</v>
-      </c>
-      <c r="T8" s="210">
-        <v>0</v>
-      </c>
-      <c r="U8" s="210">
-        <v>0</v>
-      </c>
-      <c r="V8" s="210">
-        <v>0</v>
-      </c>
-      <c r="W8" s="210">
-        <v>0</v>
-      </c>
-      <c r="X8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="210">
+      <c r="I8" s="209">
+        <v>0</v>
+      </c>
+      <c r="J8" s="209">
+        <v>0</v>
+      </c>
+      <c r="K8" s="209">
+        <v>0</v>
+      </c>
+      <c r="L8" s="209">
+        <v>0</v>
+      </c>
+      <c r="M8" s="209">
+        <v>0</v>
+      </c>
+      <c r="N8" s="209">
+        <v>0</v>
+      </c>
+      <c r="O8" s="209">
+        <v>0</v>
+      </c>
+      <c r="P8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="209">
+        <v>0</v>
+      </c>
+      <c r="R8" s="209">
+        <v>0</v>
+      </c>
+      <c r="S8" s="209">
+        <v>0</v>
+      </c>
+      <c r="T8" s="209">
+        <v>0</v>
+      </c>
+      <c r="U8" s="209">
+        <v>0</v>
+      </c>
+      <c r="V8" s="209">
+        <v>0</v>
+      </c>
+      <c r="W8" s="209">
+        <v>0</v>
+      </c>
+      <c r="X8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="209">
         <v>0</v>
       </c>
       <c r="AM8" s="56"/>
@@ -13547,91 +13540,91 @@
       <c r="I9" s="209">
         <v>0</v>
       </c>
-      <c r="J9" s="210">
-        <v>0</v>
-      </c>
-      <c r="K9" s="210">
-        <v>0</v>
-      </c>
-      <c r="L9" s="210">
-        <v>0</v>
-      </c>
-      <c r="M9" s="210">
-        <v>0</v>
-      </c>
-      <c r="N9" s="210">
-        <v>0</v>
-      </c>
-      <c r="O9" s="210">
-        <v>0</v>
-      </c>
-      <c r="P9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="210">
-        <v>0</v>
-      </c>
-      <c r="R9" s="210">
-        <v>0</v>
-      </c>
-      <c r="S9" s="210">
-        <v>0</v>
-      </c>
-      <c r="T9" s="210">
-        <v>0</v>
-      </c>
-      <c r="U9" s="210">
-        <v>0</v>
-      </c>
-      <c r="V9" s="210">
-        <v>0</v>
-      </c>
-      <c r="W9" s="210">
-        <v>0</v>
-      </c>
-      <c r="X9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="210">
+      <c r="J9" s="209">
+        <v>0</v>
+      </c>
+      <c r="K9" s="209">
+        <v>0</v>
+      </c>
+      <c r="L9" s="209">
+        <v>0</v>
+      </c>
+      <c r="M9" s="209">
+        <v>0</v>
+      </c>
+      <c r="N9" s="209">
+        <v>0</v>
+      </c>
+      <c r="O9" s="209">
+        <v>0</v>
+      </c>
+      <c r="P9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="209">
+        <v>0</v>
+      </c>
+      <c r="R9" s="209">
+        <v>0</v>
+      </c>
+      <c r="S9" s="209">
+        <v>0</v>
+      </c>
+      <c r="T9" s="209">
+        <v>0</v>
+      </c>
+      <c r="U9" s="209">
+        <v>0</v>
+      </c>
+      <c r="V9" s="209">
+        <v>0</v>
+      </c>
+      <c r="W9" s="209">
+        <v>0</v>
+      </c>
+      <c r="X9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="209">
         <v>0</v>
       </c>
       <c r="AM9" s="56"/>
@@ -13660,88 +13653,88 @@
       <c r="J10" s="209">
         <v>0</v>
       </c>
-      <c r="K10" s="210">
-        <v>0</v>
-      </c>
-      <c r="L10" s="210">
-        <v>0</v>
-      </c>
-      <c r="M10" s="210">
-        <v>0</v>
-      </c>
-      <c r="N10" s="210">
-        <v>0</v>
-      </c>
-      <c r="O10" s="210">
-        <v>0</v>
-      </c>
-      <c r="P10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="210">
-        <v>0</v>
-      </c>
-      <c r="R10" s="210">
-        <v>0</v>
-      </c>
-      <c r="S10" s="210">
-        <v>0</v>
-      </c>
-      <c r="T10" s="210">
-        <v>0</v>
-      </c>
-      <c r="U10" s="210">
-        <v>0</v>
-      </c>
-      <c r="V10" s="210">
-        <v>0</v>
-      </c>
-      <c r="W10" s="210">
-        <v>0</v>
-      </c>
-      <c r="X10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="210">
+      <c r="K10" s="209">
+        <v>0</v>
+      </c>
+      <c r="L10" s="209">
+        <v>0</v>
+      </c>
+      <c r="M10" s="209">
+        <v>0</v>
+      </c>
+      <c r="N10" s="209">
+        <v>0</v>
+      </c>
+      <c r="O10" s="209">
+        <v>0</v>
+      </c>
+      <c r="P10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="209">
+        <v>0</v>
+      </c>
+      <c r="R10" s="209">
+        <v>0</v>
+      </c>
+      <c r="S10" s="209">
+        <v>0</v>
+      </c>
+      <c r="T10" s="209">
+        <v>0</v>
+      </c>
+      <c r="U10" s="209">
+        <v>0</v>
+      </c>
+      <c r="V10" s="209">
+        <v>0</v>
+      </c>
+      <c r="W10" s="209">
+        <v>0</v>
+      </c>
+      <c r="X10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="209">
         <v>0</v>
       </c>
       <c r="AM10" s="56"/>
@@ -13771,85 +13764,85 @@
       <c r="K11" s="209">
         <v>0</v>
       </c>
-      <c r="L11" s="210">
-        <v>0</v>
-      </c>
-      <c r="M11" s="210">
-        <v>0</v>
-      </c>
-      <c r="N11" s="210">
-        <v>0</v>
-      </c>
-      <c r="O11" s="210">
-        <v>0</v>
-      </c>
-      <c r="P11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="210">
-        <v>0</v>
-      </c>
-      <c r="R11" s="210">
-        <v>0</v>
-      </c>
-      <c r="S11" s="210">
-        <v>0</v>
-      </c>
-      <c r="T11" s="210">
-        <v>0</v>
-      </c>
-      <c r="U11" s="210">
-        <v>0</v>
-      </c>
-      <c r="V11" s="210">
-        <v>0</v>
-      </c>
-      <c r="W11" s="210">
-        <v>0</v>
-      </c>
-      <c r="X11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="210">
+      <c r="L11" s="209">
+        <v>0</v>
+      </c>
+      <c r="M11" s="209">
+        <v>0</v>
+      </c>
+      <c r="N11" s="209">
+        <v>0</v>
+      </c>
+      <c r="O11" s="209">
+        <v>0</v>
+      </c>
+      <c r="P11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="209">
+        <v>0</v>
+      </c>
+      <c r="R11" s="209">
+        <v>0</v>
+      </c>
+      <c r="S11" s="209">
+        <v>0</v>
+      </c>
+      <c r="T11" s="209">
+        <v>0</v>
+      </c>
+      <c r="U11" s="209">
+        <v>0</v>
+      </c>
+      <c r="V11" s="209">
+        <v>0</v>
+      </c>
+      <c r="W11" s="209">
+        <v>0</v>
+      </c>
+      <c r="X11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="209">
         <v>0</v>
       </c>
       <c r="AM11" s="56"/>
@@ -13880,82 +13873,82 @@
       <c r="L12" s="209">
         <v>0</v>
       </c>
-      <c r="M12" s="210">
-        <v>0</v>
-      </c>
-      <c r="N12" s="210">
-        <v>0</v>
-      </c>
-      <c r="O12" s="210">
-        <v>0</v>
-      </c>
-      <c r="P12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="210">
-        <v>0</v>
-      </c>
-      <c r="R12" s="210">
-        <v>0</v>
-      </c>
-      <c r="S12" s="210">
-        <v>0</v>
-      </c>
-      <c r="T12" s="210">
-        <v>0</v>
-      </c>
-      <c r="U12" s="210">
-        <v>0</v>
-      </c>
-      <c r="V12" s="210">
-        <v>0</v>
-      </c>
-      <c r="W12" s="210">
-        <v>0</v>
-      </c>
-      <c r="X12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="210">
+      <c r="M12" s="209">
+        <v>0</v>
+      </c>
+      <c r="N12" s="209">
+        <v>0</v>
+      </c>
+      <c r="O12" s="209">
+        <v>0</v>
+      </c>
+      <c r="P12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="209">
+        <v>0</v>
+      </c>
+      <c r="R12" s="209">
+        <v>0</v>
+      </c>
+      <c r="S12" s="209">
+        <v>0</v>
+      </c>
+      <c r="T12" s="209">
+        <v>0</v>
+      </c>
+      <c r="U12" s="209">
+        <v>0</v>
+      </c>
+      <c r="V12" s="209">
+        <v>0</v>
+      </c>
+      <c r="W12" s="209">
+        <v>0</v>
+      </c>
+      <c r="X12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="209">
         <v>0</v>
       </c>
       <c r="AM12" s="56"/>
@@ -13987,79 +13980,79 @@
       <c r="M13" s="209">
         <v>0</v>
       </c>
-      <c r="N13" s="210">
-        <v>0</v>
-      </c>
-      <c r="O13" s="210">
-        <v>0</v>
-      </c>
-      <c r="P13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="210">
-        <v>0</v>
-      </c>
-      <c r="R13" s="210">
-        <v>0</v>
-      </c>
-      <c r="S13" s="210">
-        <v>0</v>
-      </c>
-      <c r="T13" s="210">
-        <v>0</v>
-      </c>
-      <c r="U13" s="210">
-        <v>0</v>
-      </c>
-      <c r="V13" s="210">
-        <v>0</v>
-      </c>
-      <c r="W13" s="210">
-        <v>0</v>
-      </c>
-      <c r="X13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="210">
+      <c r="N13" s="209">
+        <v>0</v>
+      </c>
+      <c r="O13" s="209">
+        <v>0</v>
+      </c>
+      <c r="P13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="209">
+        <v>0</v>
+      </c>
+      <c r="R13" s="209">
+        <v>0</v>
+      </c>
+      <c r="S13" s="209">
+        <v>0</v>
+      </c>
+      <c r="T13" s="209">
+        <v>0</v>
+      </c>
+      <c r="U13" s="209">
+        <v>0</v>
+      </c>
+      <c r="V13" s="209">
+        <v>0</v>
+      </c>
+      <c r="W13" s="209">
+        <v>0</v>
+      </c>
+      <c r="X13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="209">
         <v>0</v>
       </c>
       <c r="AM13" s="56"/>
@@ -14092,76 +14085,76 @@
       <c r="N14" s="209">
         <v>0</v>
       </c>
-      <c r="O14" s="210">
-        <v>0</v>
-      </c>
-      <c r="P14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="210">
-        <v>0</v>
-      </c>
-      <c r="R14" s="210">
-        <v>0</v>
-      </c>
-      <c r="S14" s="210">
-        <v>0</v>
-      </c>
-      <c r="T14" s="210">
-        <v>0</v>
-      </c>
-      <c r="U14" s="210">
-        <v>0</v>
-      </c>
-      <c r="V14" s="210">
-        <v>0</v>
-      </c>
-      <c r="W14" s="210">
-        <v>0</v>
-      </c>
-      <c r="X14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="210">
+      <c r="O14" s="209">
+        <v>0</v>
+      </c>
+      <c r="P14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="209">
+        <v>0</v>
+      </c>
+      <c r="R14" s="209">
+        <v>0</v>
+      </c>
+      <c r="S14" s="209">
+        <v>0</v>
+      </c>
+      <c r="T14" s="209">
+        <v>0</v>
+      </c>
+      <c r="U14" s="209">
+        <v>0</v>
+      </c>
+      <c r="V14" s="209">
+        <v>0</v>
+      </c>
+      <c r="W14" s="209">
+        <v>0</v>
+      </c>
+      <c r="X14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="209">
         <v>0</v>
       </c>
       <c r="AM14" s="56"/>
@@ -14195,73 +14188,73 @@
       <c r="O15" s="209">
         <v>0</v>
       </c>
-      <c r="P15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="210">
-        <v>0</v>
-      </c>
-      <c r="R15" s="210">
-        <v>0</v>
-      </c>
-      <c r="S15" s="210">
-        <v>0</v>
-      </c>
-      <c r="T15" s="210">
-        <v>0</v>
-      </c>
-      <c r="U15" s="210">
-        <v>0</v>
-      </c>
-      <c r="V15" s="210">
-        <v>0</v>
-      </c>
-      <c r="W15" s="210">
-        <v>0</v>
-      </c>
-      <c r="X15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="210">
+      <c r="P15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="209">
+        <v>0</v>
+      </c>
+      <c r="R15" s="209">
+        <v>0</v>
+      </c>
+      <c r="S15" s="209">
+        <v>0</v>
+      </c>
+      <c r="T15" s="209">
+        <v>0</v>
+      </c>
+      <c r="U15" s="209">
+        <v>0</v>
+      </c>
+      <c r="V15" s="209">
+        <v>0</v>
+      </c>
+      <c r="W15" s="209">
+        <v>0</v>
+      </c>
+      <c r="X15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="209">
         <v>0</v>
       </c>
       <c r="AM15" s="56"/>
@@ -14296,70 +14289,70 @@
       <c r="P16" s="209">
         <v>0</v>
       </c>
-      <c r="Q16" s="210">
-        <v>0</v>
-      </c>
-      <c r="R16" s="210">
-        <v>0</v>
-      </c>
-      <c r="S16" s="210">
-        <v>0</v>
-      </c>
-      <c r="T16" s="210">
-        <v>0</v>
-      </c>
-      <c r="U16" s="210">
-        <v>0</v>
-      </c>
-      <c r="V16" s="210">
-        <v>0</v>
-      </c>
-      <c r="W16" s="210">
-        <v>0</v>
-      </c>
-      <c r="X16" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="210">
+      <c r="Q16" s="209">
+        <v>0</v>
+      </c>
+      <c r="R16" s="209">
+        <v>0</v>
+      </c>
+      <c r="S16" s="209">
+        <v>0</v>
+      </c>
+      <c r="T16" s="209">
+        <v>0</v>
+      </c>
+      <c r="U16" s="209">
+        <v>0</v>
+      </c>
+      <c r="V16" s="209">
+        <v>0</v>
+      </c>
+      <c r="W16" s="209">
+        <v>0</v>
+      </c>
+      <c r="X16" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="209">
         <v>0</v>
       </c>
       <c r="AM16" s="56"/>
@@ -14395,67 +14388,67 @@
       <c r="Q17" s="209">
         <v>0</v>
       </c>
-      <c r="R17" s="210">
-        <v>0</v>
-      </c>
-      <c r="S17" s="210">
-        <v>0</v>
-      </c>
-      <c r="T17" s="210">
-        <v>0</v>
-      </c>
-      <c r="U17" s="210">
-        <v>0</v>
-      </c>
-      <c r="V17" s="210">
-        <v>0</v>
-      </c>
-      <c r="W17" s="210">
-        <v>0</v>
-      </c>
-      <c r="X17" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="210">
+      <c r="R17" s="209">
+        <v>0</v>
+      </c>
+      <c r="S17" s="209">
+        <v>0</v>
+      </c>
+      <c r="T17" s="209">
+        <v>0</v>
+      </c>
+      <c r="U17" s="209">
+        <v>0</v>
+      </c>
+      <c r="V17" s="209">
+        <v>0</v>
+      </c>
+      <c r="W17" s="209">
+        <v>0</v>
+      </c>
+      <c r="X17" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="209">
         <v>0</v>
       </c>
       <c r="AM17" s="56"/>
@@ -14492,64 +14485,64 @@
       <c r="R18" s="209">
         <v>0</v>
       </c>
-      <c r="S18" s="210">
-        <v>0</v>
-      </c>
-      <c r="T18" s="210">
-        <v>0</v>
-      </c>
-      <c r="U18" s="210">
-        <v>0</v>
-      </c>
-      <c r="V18" s="210">
-        <v>0</v>
-      </c>
-      <c r="W18" s="210">
-        <v>0</v>
-      </c>
-      <c r="X18" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="210">
+      <c r="S18" s="209">
+        <v>0</v>
+      </c>
+      <c r="T18" s="209">
+        <v>0</v>
+      </c>
+      <c r="U18" s="209">
+        <v>0</v>
+      </c>
+      <c r="V18" s="209">
+        <v>0</v>
+      </c>
+      <c r="W18" s="209">
+        <v>0</v>
+      </c>
+      <c r="X18" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="209">
         <v>0</v>
       </c>
       <c r="AM18" s="56"/>
@@ -14587,61 +14580,61 @@
       <c r="S19" s="209">
         <v>0</v>
       </c>
-      <c r="T19" s="210">
-        <v>0</v>
-      </c>
-      <c r="U19" s="210">
-        <v>0</v>
-      </c>
-      <c r="V19" s="210">
-        <v>0</v>
-      </c>
-      <c r="W19" s="210">
-        <v>0</v>
-      </c>
-      <c r="X19" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="210">
+      <c r="T19" s="209">
+        <v>0</v>
+      </c>
+      <c r="U19" s="209">
+        <v>0</v>
+      </c>
+      <c r="V19" s="209">
+        <v>0</v>
+      </c>
+      <c r="W19" s="209">
+        <v>0</v>
+      </c>
+      <c r="X19" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="209">
         <v>0</v>
       </c>
       <c r="AM19" s="56"/>
@@ -14680,58 +14673,58 @@
       <c r="T20" s="209">
         <v>0</v>
       </c>
-      <c r="U20" s="210">
-        <v>0</v>
-      </c>
-      <c r="V20" s="210">
-        <v>0</v>
-      </c>
-      <c r="W20" s="210">
-        <v>0</v>
-      </c>
-      <c r="X20" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="210">
+      <c r="U20" s="209">
+        <v>0</v>
+      </c>
+      <c r="V20" s="209">
+        <v>0</v>
+      </c>
+      <c r="W20" s="209">
+        <v>0</v>
+      </c>
+      <c r="X20" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="209">
         <v>0</v>
       </c>
       <c r="AM20" s="56"/>
@@ -14771,55 +14764,55 @@
       <c r="U21" s="209">
         <v>0</v>
       </c>
-      <c r="V21" s="210">
-        <v>0</v>
-      </c>
-      <c r="W21" s="210">
-        <v>0</v>
-      </c>
-      <c r="X21" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="210">
+      <c r="V21" s="209">
+        <v>0</v>
+      </c>
+      <c r="W21" s="209">
+        <v>0</v>
+      </c>
+      <c r="X21" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="209">
         <v>0</v>
       </c>
       <c r="AM21" s="56"/>
@@ -14860,52 +14853,52 @@
       <c r="V22" s="209">
         <v>0</v>
       </c>
-      <c r="W22" s="210">
-        <v>0</v>
-      </c>
-      <c r="X22" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="210">
+      <c r="W22" s="209">
+        <v>0</v>
+      </c>
+      <c r="X22" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="209">
         <v>0</v>
       </c>
       <c r="AM22" s="56"/>
@@ -14944,52 +14937,52 @@
       <c r="T23" s="72"/>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
-      <c r="W23" s="211">
-        <v>0</v>
-      </c>
-      <c r="X23" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="210">
+      <c r="W23" s="247">
+        <v>0</v>
+      </c>
+      <c r="X23" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="209">
         <v>0</v>
       </c>
       <c r="AM23" s="56"/>
@@ -15029,49 +15022,49 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
       <c r="W24" s="70"/>
-      <c r="X24" s="211">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="210">
+      <c r="X24" s="247">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="209">
         <v>0</v>
       </c>
       <c r="AM24" s="56"/>
@@ -15112,46 +15105,46 @@
       <c r="V25" s="70"/>
       <c r="W25" s="70"/>
       <c r="X25" s="70"/>
-      <c r="Y25" s="211">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="210">
+      <c r="Y25" s="247">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="209">
         <v>0</v>
       </c>
       <c r="AM25" s="56"/>
@@ -15196,40 +15189,40 @@
       <c r="Z26" s="209">
         <v>0</v>
       </c>
-      <c r="AA26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="210">
+      <c r="AA26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="209">
         <v>0</v>
       </c>
       <c r="AM26" s="120"/>
@@ -15275,37 +15268,37 @@
       <c r="AA27" s="209">
         <v>0</v>
       </c>
-      <c r="AB27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="210">
+      <c r="AB27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="209">
         <v>0</v>
       </c>
       <c r="AM27" s="120"/>
@@ -15352,34 +15345,34 @@
       <c r="AB28" s="209">
         <v>0</v>
       </c>
-      <c r="AC28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="210">
+      <c r="AC28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="209">
         <v>0</v>
       </c>
       <c r="AM28" s="120"/>
@@ -15427,31 +15420,31 @@
       <c r="AC29" s="209">
         <v>0</v>
       </c>
-      <c r="AD29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="210">
+      <c r="AD29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="209">
         <v>0</v>
       </c>
       <c r="AM29" s="56"/>
@@ -15500,28 +15493,28 @@
       <c r="AD30" s="209">
         <v>0</v>
       </c>
-      <c r="AE30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="210">
+      <c r="AE30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="209">
         <v>0</v>
       </c>
       <c r="AM30" s="120"/>
@@ -15571,25 +15564,25 @@
       <c r="AE31" s="209">
         <v>0</v>
       </c>
-      <c r="AF31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="210">
+      <c r="AF31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="209">
         <v>0</v>
       </c>
       <c r="AM31" s="120"/>
@@ -15640,22 +15633,22 @@
       <c r="AF32" s="209">
         <v>0</v>
       </c>
-      <c r="AG32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="210">
+      <c r="AG32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="209">
         <v>0</v>
       </c>
       <c r="AM32" s="56"/>
@@ -15707,19 +15700,19 @@
       <c r="AG33" s="209">
         <v>0</v>
       </c>
-      <c r="AH33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="210">
+      <c r="AH33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="209">
         <v>0</v>
       </c>
       <c r="AM33" s="120"/>
@@ -15772,16 +15765,16 @@
       <c r="AH34" s="209">
         <v>0</v>
       </c>
-      <c r="AI34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="210">
+      <c r="AI34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="209">
         <v>0</v>
       </c>
       <c r="AM34" s="120"/>
@@ -15835,13 +15828,13 @@
       <c r="AI35" s="209">
         <v>0</v>
       </c>
-      <c r="AJ35" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="210">
+      <c r="AJ35" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="209">
         <v>0</v>
       </c>
       <c r="AM35" s="120"/>
@@ -15896,10 +15889,10 @@
       <c r="AJ36" s="209">
         <v>0</v>
       </c>
-      <c r="AK36" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="210">
+      <c r="AK36" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="209">
         <v>0</v>
       </c>
       <c r="AM36" s="120"/>
@@ -15955,7 +15948,7 @@
       <c r="AK37" s="209">
         <v>0</v>
       </c>
-      <c r="AL37" s="210">
+      <c r="AL37" s="209">
         <v>0</v>
       </c>
       <c r="AM37" s="120"/>
@@ -16128,7 +16121,7 @@
     </row>
     <row r="41" spans="1:80" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
-      <c r="B41" s="246"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="197">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16186,7 +16179,7 @@
         <f>SUM(B4:B41)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="248">
+      <c r="C42" s="212">
         <f>SUM(C4:C41)</f>
         <v>0</v>
       </c>
@@ -17916,28 +17909,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
@@ -17954,6 +17925,28 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17971,11 +17964,11 @@
   </sheetPr>
   <dimension ref="A1:CD98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="B4:C42"/>
+      <selection pane="bottomRight" activeCell="S33" sqref="S33:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -18027,10 +18020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="242"/>
+      <c r="B1" s="243"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -18073,50 +18066,50 @@
       <c r="CD1" s="11"/>
     </row>
     <row r="2" spans="1:82" s="13" customFormat="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="246" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="227"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="227"/>
+      <c r="AH2" s="227"/>
+      <c r="AI2" s="227"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
       <c r="AM2" s="63" t="s">
         <v>33</v>
       </c>
@@ -18125,19 +18118,19 @@
       </c>
     </row>
     <row r="3" spans="1:82" s="13" customFormat="1" ht="27">
-      <c r="A3" s="244"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="245"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="241"/>
@@ -18148,23 +18141,23 @@
       <c r="S3" s="241"/>
       <c r="T3" s="241"/>
       <c r="U3" s="241"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
       <c r="AM3" s="62"/>
     </row>
     <row r="4" spans="1:82" ht="16.5" customHeight="1">
@@ -18177,106 +18170,106 @@
       <c r="D4" s="209">
         <v>0</v>
       </c>
-      <c r="E4" s="210">
-        <v>0</v>
-      </c>
-      <c r="F4" s="210">
-        <v>0</v>
-      </c>
-      <c r="G4" s="210">
-        <v>0</v>
-      </c>
-      <c r="H4" s="210">
-        <v>0</v>
-      </c>
-      <c r="I4" s="210">
-        <v>0</v>
-      </c>
-      <c r="J4" s="210">
-        <v>0</v>
-      </c>
-      <c r="K4" s="210">
-        <v>0</v>
-      </c>
-      <c r="L4" s="210">
-        <v>0</v>
-      </c>
-      <c r="M4" s="210">
-        <v>0</v>
-      </c>
-      <c r="N4" s="210">
-        <v>0</v>
-      </c>
-      <c r="O4" s="210">
-        <v>0</v>
-      </c>
-      <c r="P4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="210">
-        <v>0</v>
-      </c>
-      <c r="R4" s="210">
-        <v>0</v>
-      </c>
-      <c r="S4" s="210">
-        <v>0</v>
-      </c>
-      <c r="T4" s="210">
-        <v>0</v>
-      </c>
-      <c r="U4" s="210">
-        <v>0</v>
-      </c>
-      <c r="V4" s="210">
-        <v>0</v>
-      </c>
-      <c r="W4" s="210">
-        <v>0</v>
-      </c>
-      <c r="X4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="210">
+      <c r="E4" s="209">
+        <v>0</v>
+      </c>
+      <c r="F4" s="209">
+        <v>0</v>
+      </c>
+      <c r="G4" s="209">
+        <v>0</v>
+      </c>
+      <c r="H4" s="209">
+        <v>0</v>
+      </c>
+      <c r="I4" s="209">
+        <v>0</v>
+      </c>
+      <c r="J4" s="209">
+        <v>0</v>
+      </c>
+      <c r="K4" s="209">
+        <v>0</v>
+      </c>
+      <c r="L4" s="209">
+        <v>0</v>
+      </c>
+      <c r="M4" s="209">
+        <v>0</v>
+      </c>
+      <c r="N4" s="209">
+        <v>0</v>
+      </c>
+      <c r="O4" s="209">
+        <v>0</v>
+      </c>
+      <c r="P4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="209">
+        <v>0</v>
+      </c>
+      <c r="R4" s="209">
+        <v>0</v>
+      </c>
+      <c r="S4" s="209">
+        <v>0</v>
+      </c>
+      <c r="T4" s="209">
+        <v>0</v>
+      </c>
+      <c r="U4" s="209">
+        <v>0</v>
+      </c>
+      <c r="V4" s="209">
+        <v>0</v>
+      </c>
+      <c r="W4" s="209">
+        <v>0</v>
+      </c>
+      <c r="X4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="209">
         <v>0</v>
       </c>
       <c r="AM4" s="56"/>
@@ -18288,110 +18281,110 @@
       <c r="A5" s="68"/>
       <c r="B5" s="89"/>
       <c r="C5" s="197">
-        <f t="shared" ref="C5:C42" si="0">SUM(D5,AL5)</f>
+        <f t="shared" ref="C5:C41" si="0">SUM(D5,AL5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="209">
         <v>0</v>
       </c>
-      <c r="F5" s="210">
-        <v>0</v>
-      </c>
-      <c r="G5" s="210">
-        <v>0</v>
-      </c>
-      <c r="H5" s="210">
-        <v>0</v>
-      </c>
-      <c r="I5" s="210">
-        <v>0</v>
-      </c>
-      <c r="J5" s="210">
-        <v>0</v>
-      </c>
-      <c r="K5" s="210">
-        <v>0</v>
-      </c>
-      <c r="L5" s="210">
-        <v>0</v>
-      </c>
-      <c r="M5" s="210">
-        <v>0</v>
-      </c>
-      <c r="N5" s="210">
-        <v>0</v>
-      </c>
-      <c r="O5" s="210">
-        <v>0</v>
-      </c>
-      <c r="P5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="210">
-        <v>0</v>
-      </c>
-      <c r="R5" s="210">
-        <v>0</v>
-      </c>
-      <c r="S5" s="210">
-        <v>0</v>
-      </c>
-      <c r="T5" s="210">
-        <v>0</v>
-      </c>
-      <c r="U5" s="210">
-        <v>0</v>
-      </c>
-      <c r="V5" s="210">
-        <v>0</v>
-      </c>
-      <c r="W5" s="210">
-        <v>0</v>
-      </c>
-      <c r="X5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="210">
+      <c r="F5" s="209">
+        <v>0</v>
+      </c>
+      <c r="G5" s="209">
+        <v>0</v>
+      </c>
+      <c r="H5" s="209">
+        <v>0</v>
+      </c>
+      <c r="I5" s="209">
+        <v>0</v>
+      </c>
+      <c r="J5" s="209">
+        <v>0</v>
+      </c>
+      <c r="K5" s="209">
+        <v>0</v>
+      </c>
+      <c r="L5" s="209">
+        <v>0</v>
+      </c>
+      <c r="M5" s="209">
+        <v>0</v>
+      </c>
+      <c r="N5" s="209">
+        <v>0</v>
+      </c>
+      <c r="O5" s="209">
+        <v>0</v>
+      </c>
+      <c r="P5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="209">
+        <v>0</v>
+      </c>
+      <c r="R5" s="209">
+        <v>0</v>
+      </c>
+      <c r="S5" s="209">
+        <v>0</v>
+      </c>
+      <c r="T5" s="209">
+        <v>0</v>
+      </c>
+      <c r="U5" s="209">
+        <v>0</v>
+      </c>
+      <c r="V5" s="209">
+        <v>0</v>
+      </c>
+      <c r="W5" s="209">
+        <v>0</v>
+      </c>
+      <c r="X5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="209">
         <v>0</v>
       </c>
       <c r="AM5" s="56"/>
@@ -18411,100 +18404,100 @@
       <c r="F6" s="209">
         <v>0</v>
       </c>
-      <c r="G6" s="210">
-        <v>0</v>
-      </c>
-      <c r="H6" s="210">
-        <v>0</v>
-      </c>
-      <c r="I6" s="210">
-        <v>0</v>
-      </c>
-      <c r="J6" s="210">
-        <v>0</v>
-      </c>
-      <c r="K6" s="210">
-        <v>0</v>
-      </c>
-      <c r="L6" s="210">
-        <v>0</v>
-      </c>
-      <c r="M6" s="210">
-        <v>0</v>
-      </c>
-      <c r="N6" s="210">
-        <v>0</v>
-      </c>
-      <c r="O6" s="210">
-        <v>0</v>
-      </c>
-      <c r="P6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="210">
-        <v>0</v>
-      </c>
-      <c r="R6" s="210">
-        <v>0</v>
-      </c>
-      <c r="S6" s="210">
-        <v>0</v>
-      </c>
-      <c r="T6" s="210">
-        <v>0</v>
-      </c>
-      <c r="U6" s="210">
-        <v>0</v>
-      </c>
-      <c r="V6" s="210">
-        <v>0</v>
-      </c>
-      <c r="W6" s="210">
-        <v>0</v>
-      </c>
-      <c r="X6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="210">
+      <c r="G6" s="209">
+        <v>0</v>
+      </c>
+      <c r="H6" s="209">
+        <v>0</v>
+      </c>
+      <c r="I6" s="209">
+        <v>0</v>
+      </c>
+      <c r="J6" s="209">
+        <v>0</v>
+      </c>
+      <c r="K6" s="209">
+        <v>0</v>
+      </c>
+      <c r="L6" s="209">
+        <v>0</v>
+      </c>
+      <c r="M6" s="209">
+        <v>0</v>
+      </c>
+      <c r="N6" s="209">
+        <v>0</v>
+      </c>
+      <c r="O6" s="209">
+        <v>0</v>
+      </c>
+      <c r="P6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="209">
+        <v>0</v>
+      </c>
+      <c r="R6" s="209">
+        <v>0</v>
+      </c>
+      <c r="S6" s="209">
+        <v>0</v>
+      </c>
+      <c r="T6" s="209">
+        <v>0</v>
+      </c>
+      <c r="U6" s="209">
+        <v>0</v>
+      </c>
+      <c r="V6" s="209">
+        <v>0</v>
+      </c>
+      <c r="W6" s="209">
+        <v>0</v>
+      </c>
+      <c r="X6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="209">
         <v>0</v>
       </c>
       <c r="AM6" s="56"/>
@@ -18525,97 +18518,97 @@
       <c r="G7" s="209">
         <v>0</v>
       </c>
-      <c r="H7" s="210">
-        <v>0</v>
-      </c>
-      <c r="I7" s="210">
-        <v>0</v>
-      </c>
-      <c r="J7" s="210">
-        <v>0</v>
-      </c>
-      <c r="K7" s="210">
-        <v>0</v>
-      </c>
-      <c r="L7" s="210">
-        <v>0</v>
-      </c>
-      <c r="M7" s="210">
-        <v>0</v>
-      </c>
-      <c r="N7" s="210">
-        <v>0</v>
-      </c>
-      <c r="O7" s="210">
-        <v>0</v>
-      </c>
-      <c r="P7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="210">
-        <v>0</v>
-      </c>
-      <c r="R7" s="210">
-        <v>0</v>
-      </c>
-      <c r="S7" s="210">
-        <v>0</v>
-      </c>
-      <c r="T7" s="210">
-        <v>0</v>
-      </c>
-      <c r="U7" s="210">
-        <v>0</v>
-      </c>
-      <c r="V7" s="210">
-        <v>0</v>
-      </c>
-      <c r="W7" s="210">
-        <v>0</v>
-      </c>
-      <c r="X7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="210">
+      <c r="H7" s="209">
+        <v>0</v>
+      </c>
+      <c r="I7" s="209">
+        <v>0</v>
+      </c>
+      <c r="J7" s="209">
+        <v>0</v>
+      </c>
+      <c r="K7" s="209">
+        <v>0</v>
+      </c>
+      <c r="L7" s="209">
+        <v>0</v>
+      </c>
+      <c r="M7" s="209">
+        <v>0</v>
+      </c>
+      <c r="N7" s="209">
+        <v>0</v>
+      </c>
+      <c r="O7" s="209">
+        <v>0</v>
+      </c>
+      <c r="P7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="209">
+        <v>0</v>
+      </c>
+      <c r="R7" s="209">
+        <v>0</v>
+      </c>
+      <c r="S7" s="209">
+        <v>0</v>
+      </c>
+      <c r="T7" s="209">
+        <v>0</v>
+      </c>
+      <c r="U7" s="209">
+        <v>0</v>
+      </c>
+      <c r="V7" s="209">
+        <v>0</v>
+      </c>
+      <c r="W7" s="209">
+        <v>0</v>
+      </c>
+      <c r="X7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="209">
         <v>0</v>
       </c>
       <c r="AM7" s="56"/>
@@ -18637,94 +18630,94 @@
       <c r="H8" s="209">
         <v>0</v>
       </c>
-      <c r="I8" s="210">
-        <v>0</v>
-      </c>
-      <c r="J8" s="210">
-        <v>0</v>
-      </c>
-      <c r="K8" s="210">
-        <v>0</v>
-      </c>
-      <c r="L8" s="210">
-        <v>0</v>
-      </c>
-      <c r="M8" s="210">
-        <v>0</v>
-      </c>
-      <c r="N8" s="210">
-        <v>0</v>
-      </c>
-      <c r="O8" s="210">
-        <v>0</v>
-      </c>
-      <c r="P8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="210">
-        <v>0</v>
-      </c>
-      <c r="R8" s="210">
-        <v>0</v>
-      </c>
-      <c r="S8" s="210">
-        <v>0</v>
-      </c>
-      <c r="T8" s="210">
-        <v>0</v>
-      </c>
-      <c r="U8" s="210">
-        <v>0</v>
-      </c>
-      <c r="V8" s="210">
-        <v>0</v>
-      </c>
-      <c r="W8" s="210">
-        <v>0</v>
-      </c>
-      <c r="X8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="210">
+      <c r="I8" s="209">
+        <v>0</v>
+      </c>
+      <c r="J8" s="209">
+        <v>0</v>
+      </c>
+      <c r="K8" s="209">
+        <v>0</v>
+      </c>
+      <c r="L8" s="209">
+        <v>0</v>
+      </c>
+      <c r="M8" s="209">
+        <v>0</v>
+      </c>
+      <c r="N8" s="209">
+        <v>0</v>
+      </c>
+      <c r="O8" s="209">
+        <v>0</v>
+      </c>
+      <c r="P8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="209">
+        <v>0</v>
+      </c>
+      <c r="R8" s="209">
+        <v>0</v>
+      </c>
+      <c r="S8" s="209">
+        <v>0</v>
+      </c>
+      <c r="T8" s="209">
+        <v>0</v>
+      </c>
+      <c r="U8" s="209">
+        <v>0</v>
+      </c>
+      <c r="V8" s="209">
+        <v>0</v>
+      </c>
+      <c r="W8" s="209">
+        <v>0</v>
+      </c>
+      <c r="X8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="209">
         <v>0</v>
       </c>
       <c r="AM8" s="56"/>
@@ -18747,91 +18740,91 @@
       <c r="I9" s="209">
         <v>0</v>
       </c>
-      <c r="J9" s="210">
-        <v>0</v>
-      </c>
-      <c r="K9" s="210">
-        <v>0</v>
-      </c>
-      <c r="L9" s="210">
-        <v>0</v>
-      </c>
-      <c r="M9" s="210">
-        <v>0</v>
-      </c>
-      <c r="N9" s="210">
-        <v>0</v>
-      </c>
-      <c r="O9" s="210">
-        <v>0</v>
-      </c>
-      <c r="P9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="210">
-        <v>0</v>
-      </c>
-      <c r="R9" s="210">
-        <v>0</v>
-      </c>
-      <c r="S9" s="210">
-        <v>0</v>
-      </c>
-      <c r="T9" s="210">
-        <v>0</v>
-      </c>
-      <c r="U9" s="210">
-        <v>0</v>
-      </c>
-      <c r="V9" s="210">
-        <v>0</v>
-      </c>
-      <c r="W9" s="210">
-        <v>0</v>
-      </c>
-      <c r="X9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="210">
+      <c r="J9" s="209">
+        <v>0</v>
+      </c>
+      <c r="K9" s="209">
+        <v>0</v>
+      </c>
+      <c r="L9" s="209">
+        <v>0</v>
+      </c>
+      <c r="M9" s="209">
+        <v>0</v>
+      </c>
+      <c r="N9" s="209">
+        <v>0</v>
+      </c>
+      <c r="O9" s="209">
+        <v>0</v>
+      </c>
+      <c r="P9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="209">
+        <v>0</v>
+      </c>
+      <c r="R9" s="209">
+        <v>0</v>
+      </c>
+      <c r="S9" s="209">
+        <v>0</v>
+      </c>
+      <c r="T9" s="209">
+        <v>0</v>
+      </c>
+      <c r="U9" s="209">
+        <v>0</v>
+      </c>
+      <c r="V9" s="209">
+        <v>0</v>
+      </c>
+      <c r="W9" s="209">
+        <v>0</v>
+      </c>
+      <c r="X9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="209">
         <v>0</v>
       </c>
       <c r="AM9" s="56"/>
@@ -18855,88 +18848,88 @@
       <c r="J10" s="209">
         <v>0</v>
       </c>
-      <c r="K10" s="210">
-        <v>0</v>
-      </c>
-      <c r="L10" s="210">
-        <v>0</v>
-      </c>
-      <c r="M10" s="210">
-        <v>0</v>
-      </c>
-      <c r="N10" s="210">
-        <v>0</v>
-      </c>
-      <c r="O10" s="210">
-        <v>0</v>
-      </c>
-      <c r="P10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="210">
-        <v>0</v>
-      </c>
-      <c r="R10" s="210">
-        <v>0</v>
-      </c>
-      <c r="S10" s="210">
-        <v>0</v>
-      </c>
-      <c r="T10" s="210">
-        <v>0</v>
-      </c>
-      <c r="U10" s="210">
-        <v>0</v>
-      </c>
-      <c r="V10" s="210">
-        <v>0</v>
-      </c>
-      <c r="W10" s="210">
-        <v>0</v>
-      </c>
-      <c r="X10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="210">
+      <c r="K10" s="209">
+        <v>0</v>
+      </c>
+      <c r="L10" s="209">
+        <v>0</v>
+      </c>
+      <c r="M10" s="209">
+        <v>0</v>
+      </c>
+      <c r="N10" s="209">
+        <v>0</v>
+      </c>
+      <c r="O10" s="209">
+        <v>0</v>
+      </c>
+      <c r="P10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="209">
+        <v>0</v>
+      </c>
+      <c r="R10" s="209">
+        <v>0</v>
+      </c>
+      <c r="S10" s="209">
+        <v>0</v>
+      </c>
+      <c r="T10" s="209">
+        <v>0</v>
+      </c>
+      <c r="U10" s="209">
+        <v>0</v>
+      </c>
+      <c r="V10" s="209">
+        <v>0</v>
+      </c>
+      <c r="W10" s="209">
+        <v>0</v>
+      </c>
+      <c r="X10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="209">
         <v>0</v>
       </c>
       <c r="AM10" s="56"/>
@@ -18961,85 +18954,85 @@
       <c r="K11" s="209">
         <v>0</v>
       </c>
-      <c r="L11" s="210">
-        <v>0</v>
-      </c>
-      <c r="M11" s="210">
-        <v>0</v>
-      </c>
-      <c r="N11" s="210">
-        <v>0</v>
-      </c>
-      <c r="O11" s="210">
-        <v>0</v>
-      </c>
-      <c r="P11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="210">
-        <v>0</v>
-      </c>
-      <c r="R11" s="210">
-        <v>0</v>
-      </c>
-      <c r="S11" s="210">
-        <v>0</v>
-      </c>
-      <c r="T11" s="210">
-        <v>0</v>
-      </c>
-      <c r="U11" s="210">
-        <v>0</v>
-      </c>
-      <c r="V11" s="210">
-        <v>0</v>
-      </c>
-      <c r="W11" s="210">
-        <v>0</v>
-      </c>
-      <c r="X11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="210">
+      <c r="L11" s="209">
+        <v>0</v>
+      </c>
+      <c r="M11" s="209">
+        <v>0</v>
+      </c>
+      <c r="N11" s="209">
+        <v>0</v>
+      </c>
+      <c r="O11" s="209">
+        <v>0</v>
+      </c>
+      <c r="P11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="209">
+        <v>0</v>
+      </c>
+      <c r="R11" s="209">
+        <v>0</v>
+      </c>
+      <c r="S11" s="209">
+        <v>0</v>
+      </c>
+      <c r="T11" s="209">
+        <v>0</v>
+      </c>
+      <c r="U11" s="209">
+        <v>0</v>
+      </c>
+      <c r="V11" s="209">
+        <v>0</v>
+      </c>
+      <c r="W11" s="209">
+        <v>0</v>
+      </c>
+      <c r="X11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="209">
         <v>0</v>
       </c>
       <c r="AM11" s="56"/>
@@ -19065,82 +19058,82 @@
       <c r="L12" s="209">
         <v>0</v>
       </c>
-      <c r="M12" s="210">
-        <v>0</v>
-      </c>
-      <c r="N12" s="210">
-        <v>0</v>
-      </c>
-      <c r="O12" s="210">
-        <v>0</v>
-      </c>
-      <c r="P12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="210">
-        <v>0</v>
-      </c>
-      <c r="R12" s="210">
-        <v>0</v>
-      </c>
-      <c r="S12" s="210">
-        <v>0</v>
-      </c>
-      <c r="T12" s="210">
-        <v>0</v>
-      </c>
-      <c r="U12" s="210">
-        <v>0</v>
-      </c>
-      <c r="V12" s="210">
-        <v>0</v>
-      </c>
-      <c r="W12" s="210">
-        <v>0</v>
-      </c>
-      <c r="X12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="210">
+      <c r="M12" s="209">
+        <v>0</v>
+      </c>
+      <c r="N12" s="209">
+        <v>0</v>
+      </c>
+      <c r="O12" s="209">
+        <v>0</v>
+      </c>
+      <c r="P12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="209">
+        <v>0</v>
+      </c>
+      <c r="R12" s="209">
+        <v>0</v>
+      </c>
+      <c r="S12" s="209">
+        <v>0</v>
+      </c>
+      <c r="T12" s="209">
+        <v>0</v>
+      </c>
+      <c r="U12" s="209">
+        <v>0</v>
+      </c>
+      <c r="V12" s="209">
+        <v>0</v>
+      </c>
+      <c r="W12" s="209">
+        <v>0</v>
+      </c>
+      <c r="X12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="209">
         <v>0</v>
       </c>
       <c r="AM12" s="56"/>
@@ -19167,79 +19160,79 @@
       <c r="M13" s="209">
         <v>0</v>
       </c>
-      <c r="N13" s="210">
-        <v>0</v>
-      </c>
-      <c r="O13" s="210">
-        <v>0</v>
-      </c>
-      <c r="P13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="210">
-        <v>0</v>
-      </c>
-      <c r="R13" s="210">
-        <v>0</v>
-      </c>
-      <c r="S13" s="210">
-        <v>0</v>
-      </c>
-      <c r="T13" s="210">
-        <v>0</v>
-      </c>
-      <c r="U13" s="210">
-        <v>0</v>
-      </c>
-      <c r="V13" s="210">
-        <v>0</v>
-      </c>
-      <c r="W13" s="210">
-        <v>0</v>
-      </c>
-      <c r="X13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="210">
+      <c r="N13" s="209">
+        <v>0</v>
+      </c>
+      <c r="O13" s="209">
+        <v>0</v>
+      </c>
+      <c r="P13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="209">
+        <v>0</v>
+      </c>
+      <c r="R13" s="209">
+        <v>0</v>
+      </c>
+      <c r="S13" s="209">
+        <v>0</v>
+      </c>
+      <c r="T13" s="209">
+        <v>0</v>
+      </c>
+      <c r="U13" s="209">
+        <v>0</v>
+      </c>
+      <c r="V13" s="209">
+        <v>0</v>
+      </c>
+      <c r="W13" s="209">
+        <v>0</v>
+      </c>
+      <c r="X13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="209">
         <v>0</v>
       </c>
       <c r="AM13" s="56"/>
@@ -19267,76 +19260,76 @@
       <c r="N14" s="209">
         <v>0</v>
       </c>
-      <c r="O14" s="210">
-        <v>0</v>
-      </c>
-      <c r="P14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="210">
-        <v>0</v>
-      </c>
-      <c r="R14" s="210">
-        <v>0</v>
-      </c>
-      <c r="S14" s="210">
-        <v>0</v>
-      </c>
-      <c r="T14" s="210">
-        <v>0</v>
-      </c>
-      <c r="U14" s="210">
-        <v>0</v>
-      </c>
-      <c r="V14" s="210">
-        <v>0</v>
-      </c>
-      <c r="W14" s="210">
-        <v>0</v>
-      </c>
-      <c r="X14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="210">
+      <c r="O14" s="209">
+        <v>0</v>
+      </c>
+      <c r="P14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="209">
+        <v>0</v>
+      </c>
+      <c r="R14" s="209">
+        <v>0</v>
+      </c>
+      <c r="S14" s="209">
+        <v>0</v>
+      </c>
+      <c r="T14" s="209">
+        <v>0</v>
+      </c>
+      <c r="U14" s="209">
+        <v>0</v>
+      </c>
+      <c r="V14" s="209">
+        <v>0</v>
+      </c>
+      <c r="W14" s="209">
+        <v>0</v>
+      </c>
+      <c r="X14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="209">
         <v>0</v>
       </c>
       <c r="AM14" s="56"/>
@@ -19365,73 +19358,73 @@
       <c r="O15" s="209">
         <v>0</v>
       </c>
-      <c r="P15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="210">
-        <v>0</v>
-      </c>
-      <c r="R15" s="210">
-        <v>0</v>
-      </c>
-      <c r="S15" s="210">
-        <v>0</v>
-      </c>
-      <c r="T15" s="210">
-        <v>0</v>
-      </c>
-      <c r="U15" s="210">
-        <v>0</v>
-      </c>
-      <c r="V15" s="210">
-        <v>0</v>
-      </c>
-      <c r="W15" s="210">
-        <v>0</v>
-      </c>
-      <c r="X15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="210">
+      <c r="P15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="209">
+        <v>0</v>
+      </c>
+      <c r="R15" s="209">
+        <v>0</v>
+      </c>
+      <c r="S15" s="209">
+        <v>0</v>
+      </c>
+      <c r="T15" s="209">
+        <v>0</v>
+      </c>
+      <c r="U15" s="209">
+        <v>0</v>
+      </c>
+      <c r="V15" s="209">
+        <v>0</v>
+      </c>
+      <c r="W15" s="209">
+        <v>0</v>
+      </c>
+      <c r="X15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="209">
         <v>0</v>
       </c>
       <c r="AM15" s="56"/>
@@ -19461,70 +19454,70 @@
       <c r="P16" s="209">
         <v>0</v>
       </c>
-      <c r="Q16" s="210">
-        <v>0</v>
-      </c>
-      <c r="R16" s="210">
-        <v>0</v>
-      </c>
-      <c r="S16" s="210">
-        <v>0</v>
-      </c>
-      <c r="T16" s="210">
-        <v>0</v>
-      </c>
-      <c r="U16" s="210">
-        <v>0</v>
-      </c>
-      <c r="V16" s="210">
-        <v>0</v>
-      </c>
-      <c r="W16" s="210">
-        <v>0</v>
-      </c>
-      <c r="X16" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="210">
+      <c r="Q16" s="209">
+        <v>0</v>
+      </c>
+      <c r="R16" s="209">
+        <v>0</v>
+      </c>
+      <c r="S16" s="209">
+        <v>0</v>
+      </c>
+      <c r="T16" s="209">
+        <v>0</v>
+      </c>
+      <c r="U16" s="209">
+        <v>0</v>
+      </c>
+      <c r="V16" s="209">
+        <v>0</v>
+      </c>
+      <c r="W16" s="209">
+        <v>0</v>
+      </c>
+      <c r="X16" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="209">
         <v>0</v>
       </c>
       <c r="AM16" s="56"/>
@@ -19555,67 +19548,67 @@
       <c r="Q17" s="209">
         <v>0</v>
       </c>
-      <c r="R17" s="210">
-        <v>0</v>
-      </c>
-      <c r="S17" s="210">
-        <v>0</v>
-      </c>
-      <c r="T17" s="210">
-        <v>0</v>
-      </c>
-      <c r="U17" s="210">
-        <v>0</v>
-      </c>
-      <c r="V17" s="210">
-        <v>0</v>
-      </c>
-      <c r="W17" s="210">
-        <v>0</v>
-      </c>
-      <c r="X17" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="210">
+      <c r="R17" s="209">
+        <v>0</v>
+      </c>
+      <c r="S17" s="209">
+        <v>0</v>
+      </c>
+      <c r="T17" s="209">
+        <v>0</v>
+      </c>
+      <c r="U17" s="209">
+        <v>0</v>
+      </c>
+      <c r="V17" s="209">
+        <v>0</v>
+      </c>
+      <c r="W17" s="209">
+        <v>0</v>
+      </c>
+      <c r="X17" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="209">
         <v>0</v>
       </c>
       <c r="AM17" s="56"/>
@@ -19647,64 +19640,64 @@
       <c r="R18" s="209">
         <v>0</v>
       </c>
-      <c r="S18" s="210">
-        <v>0</v>
-      </c>
-      <c r="T18" s="210">
-        <v>0</v>
-      </c>
-      <c r="U18" s="210">
-        <v>0</v>
-      </c>
-      <c r="V18" s="210">
-        <v>0</v>
-      </c>
-      <c r="W18" s="210">
-        <v>0</v>
-      </c>
-      <c r="X18" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="210">
+      <c r="S18" s="209">
+        <v>0</v>
+      </c>
+      <c r="T18" s="209">
+        <v>0</v>
+      </c>
+      <c r="U18" s="209">
+        <v>0</v>
+      </c>
+      <c r="V18" s="209">
+        <v>0</v>
+      </c>
+      <c r="W18" s="209">
+        <v>0</v>
+      </c>
+      <c r="X18" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="209">
         <v>0</v>
       </c>
       <c r="AM18" s="56"/>
@@ -19737,61 +19730,61 @@
       <c r="S19" s="209">
         <v>0</v>
       </c>
-      <c r="T19" s="210">
-        <v>0</v>
-      </c>
-      <c r="U19" s="210">
-        <v>0</v>
-      </c>
-      <c r="V19" s="210">
-        <v>0</v>
-      </c>
-      <c r="W19" s="210">
-        <v>0</v>
-      </c>
-      <c r="X19" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="210">
+      <c r="T19" s="209">
+        <v>0</v>
+      </c>
+      <c r="U19" s="209">
+        <v>0</v>
+      </c>
+      <c r="V19" s="209">
+        <v>0</v>
+      </c>
+      <c r="W19" s="209">
+        <v>0</v>
+      </c>
+      <c r="X19" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="209">
         <v>0</v>
       </c>
       <c r="AM19" s="56"/>
@@ -19825,58 +19818,58 @@
       <c r="T20" s="209">
         <v>0</v>
       </c>
-      <c r="U20" s="210">
-        <v>0</v>
-      </c>
-      <c r="V20" s="210">
-        <v>0</v>
-      </c>
-      <c r="W20" s="210">
-        <v>0</v>
-      </c>
-      <c r="X20" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="210">
+      <c r="U20" s="209">
+        <v>0</v>
+      </c>
+      <c r="V20" s="209">
+        <v>0</v>
+      </c>
+      <c r="W20" s="209">
+        <v>0</v>
+      </c>
+      <c r="X20" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="209">
         <v>0</v>
       </c>
       <c r="AM20" s="56"/>
@@ -19911,55 +19904,55 @@
       <c r="U21" s="209">
         <v>0</v>
       </c>
-      <c r="V21" s="210">
-        <v>0</v>
-      </c>
-      <c r="W21" s="210">
-        <v>0</v>
-      </c>
-      <c r="X21" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="210">
+      <c r="V21" s="209">
+        <v>0</v>
+      </c>
+      <c r="W21" s="209">
+        <v>0</v>
+      </c>
+      <c r="X21" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="209">
         <v>0</v>
       </c>
       <c r="AM21" s="56"/>
@@ -19995,52 +19988,52 @@
       <c r="V22" s="209">
         <v>0</v>
       </c>
-      <c r="W22" s="210">
-        <v>0</v>
-      </c>
-      <c r="X22" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="210">
+      <c r="W22" s="209">
+        <v>0</v>
+      </c>
+      <c r="X22" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="209">
         <v>0</v>
       </c>
       <c r="AM22" s="56"/>
@@ -20074,52 +20067,52 @@
       <c r="T23" s="72"/>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
-      <c r="W23" s="211">
-        <v>0</v>
-      </c>
-      <c r="X23" s="210">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="210">
+      <c r="W23" s="247">
+        <v>0</v>
+      </c>
+      <c r="X23" s="209">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="209">
         <v>0</v>
       </c>
       <c r="AM23" s="56"/>
@@ -20154,49 +20147,49 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
       <c r="W24" s="70"/>
-      <c r="X24" s="211">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="210">
+      <c r="X24" s="247">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="209">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="209">
         <v>0</v>
       </c>
       <c r="AM24" s="56"/>
@@ -20232,46 +20225,46 @@
       <c r="V25" s="70"/>
       <c r="W25" s="70"/>
       <c r="X25" s="70"/>
-      <c r="Y25" s="211">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="210">
+      <c r="Y25" s="247">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="209">
         <v>0</v>
       </c>
       <c r="AM25" s="56"/>
@@ -20311,40 +20304,40 @@
       <c r="Z26" s="209">
         <v>0</v>
       </c>
-      <c r="AA26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="210">
+      <c r="AA26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="209">
         <v>0</v>
       </c>
       <c r="AM26" s="56"/>
@@ -20385,37 +20378,37 @@
       <c r="AA27" s="209">
         <v>0</v>
       </c>
-      <c r="AB27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="210">
+      <c r="AB27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="209">
         <v>0</v>
       </c>
       <c r="AM27" s="56"/>
@@ -20457,34 +20450,34 @@
       <c r="AB28" s="209">
         <v>0</v>
       </c>
-      <c r="AC28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="210">
+      <c r="AC28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="209">
         <v>0</v>
       </c>
       <c r="AM28" s="56"/>
@@ -20527,31 +20520,31 @@
       <c r="AC29" s="209">
         <v>0</v>
       </c>
-      <c r="AD29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="210">
+      <c r="AD29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="209">
         <v>0</v>
       </c>
       <c r="AM29" s="56"/>
@@ -20595,28 +20588,28 @@
       <c r="AD30" s="209">
         <v>0</v>
       </c>
-      <c r="AE30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="210">
+      <c r="AE30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="209">
         <v>0</v>
       </c>
       <c r="AM30" s="56"/>
@@ -20661,25 +20654,25 @@
       <c r="AE31" s="209">
         <v>0</v>
       </c>
-      <c r="AF31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="210">
+      <c r="AF31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="209">
         <v>0</v>
       </c>
       <c r="AM31" s="56"/>
@@ -20725,22 +20718,22 @@
       <c r="AF32" s="209">
         <v>0</v>
       </c>
-      <c r="AG32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="210">
+      <c r="AG32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="209">
         <v>0</v>
       </c>
       <c r="AM32" s="56"/>
@@ -20787,19 +20780,19 @@
       <c r="AG33" s="209">
         <v>0</v>
       </c>
-      <c r="AH33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="210">
+      <c r="AH33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="209">
         <v>0</v>
       </c>
       <c r="AM33" s="56"/>
@@ -20847,16 +20840,16 @@
       <c r="AH34" s="209">
         <v>0</v>
       </c>
-      <c r="AI34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="210">
+      <c r="AI34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="209">
         <v>0</v>
       </c>
       <c r="AM34" s="56"/>
@@ -20905,13 +20898,13 @@
       <c r="AI35" s="209">
         <v>0</v>
       </c>
-      <c r="AJ35" s="210">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="210">
+      <c r="AJ35" s="209">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="209">
         <v>0</v>
       </c>
       <c r="AM35" s="56"/>
@@ -20961,10 +20954,10 @@
       <c r="AJ36" s="209">
         <v>0</v>
       </c>
-      <c r="AK36" s="210">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="210">
+      <c r="AK36" s="209">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="209">
         <v>0</v>
       </c>
       <c r="AM36" s="56"/>
@@ -21015,7 +21008,7 @@
       <c r="AK37" s="209">
         <v>0</v>
       </c>
-      <c r="AL37" s="210">
+      <c r="AL37" s="209">
         <v>0</v>
       </c>
       <c r="AM37" s="56"/>
@@ -21168,7 +21161,7 @@
     </row>
     <row r="41" spans="1:82" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
-      <c r="B41" s="246"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="197">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21214,14 +21207,14 @@
       <c r="CD41" s="11"/>
     </row>
     <row r="42" spans="1:82" s="57" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="247" t="s">
+      <c r="A42" s="211" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="206">
         <f>SUM(B4:B41)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="248">
+      <c r="C42" s="212">
         <f>SUM(C4:C41)</f>
         <v>0</v>
       </c>
@@ -23171,17 +23164,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
@@ -23196,19 +23191,17 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
